--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H2">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N2">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O2">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P2">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q2">
-        <v>176.4080953178232</v>
+        <v>975.4145930154406</v>
       </c>
       <c r="R2">
-        <v>176.4080953178232</v>
+        <v>8778.731337138965</v>
       </c>
       <c r="S2">
-        <v>0.07459197082092152</v>
+        <v>0.2422781295247323</v>
       </c>
       <c r="T2">
-        <v>0.07459197082092152</v>
+        <v>0.2422781295247323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H3">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N3">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P3">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q3">
-        <v>86.07476646546546</v>
+        <v>371.5293552223445</v>
       </c>
       <c r="R3">
-        <v>86.07476646546546</v>
+        <v>3343.7641970011</v>
       </c>
       <c r="S3">
-        <v>0.03639564531912355</v>
+        <v>0.09228223351521518</v>
       </c>
       <c r="T3">
-        <v>0.03639564531912355</v>
+        <v>0.09228223351521518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H4">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N4">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P4">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q4">
-        <v>69.17751763209935</v>
+        <v>301.6468284974044</v>
       </c>
       <c r="R4">
-        <v>69.17751763209935</v>
+        <v>2714.82145647664</v>
       </c>
       <c r="S4">
-        <v>0.02925085363787154</v>
+        <v>0.0749244781744433</v>
       </c>
       <c r="T4">
-        <v>0.02925085363787154</v>
+        <v>0.0749244781744433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H5">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N5">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O5">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P5">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q5">
-        <v>931.4563980417491</v>
+        <v>1210.484430786829</v>
       </c>
       <c r="R5">
-        <v>931.4563980417491</v>
+        <v>10894.35987708146</v>
       </c>
       <c r="S5">
-        <v>0.3938547623821606</v>
+        <v>0.3006658971578466</v>
       </c>
       <c r="T5">
-        <v>0.3938547623821606</v>
+        <v>0.3006658971578466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H6">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N6">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P6">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q6">
-        <v>454.485332942126</v>
+        <v>461.0659952160446</v>
       </c>
       <c r="R6">
-        <v>454.485332942126</v>
+        <v>4149.593956944401</v>
       </c>
       <c r="S6">
-        <v>0.1921734749886544</v>
+        <v>0.1145217712635084</v>
       </c>
       <c r="T6">
-        <v>0.1921734749886544</v>
+        <v>0.1145217712635084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H7">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N7">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P7">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q7">
-        <v>365.2657849004883</v>
+        <v>374.3421434402845</v>
       </c>
       <c r="R7">
-        <v>365.2657849004883</v>
+        <v>3369.079290962561</v>
       </c>
       <c r="S7">
-        <v>0.1544480978613312</v>
+        <v>0.09298088727031738</v>
       </c>
       <c r="T7">
-        <v>0.1544480978613312</v>
+        <v>0.09298088727031738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H8">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N8">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O8">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P8">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q8">
-        <v>150.0506535839539</v>
+        <v>196.1539726473603</v>
       </c>
       <c r="R8">
-        <v>150.0506535839539</v>
+        <v>1765.385753826242</v>
       </c>
       <c r="S8">
-        <v>0.06344705413677044</v>
+        <v>0.04872165941759257</v>
       </c>
       <c r="T8">
-        <v>0.06344705413677044</v>
+        <v>0.04872165941759257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H9">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N9">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P9">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q9">
-        <v>73.21418522182965</v>
+        <v>74.71382887217224</v>
       </c>
       <c r="R9">
-        <v>73.21418522182965</v>
+        <v>672.4244598495501</v>
       </c>
       <c r="S9">
-        <v>0.03095770836312915</v>
+        <v>0.01855777721432376</v>
       </c>
       <c r="T9">
-        <v>0.03095770836312915</v>
+        <v>0.01855777721432376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H10">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N10">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P10">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q10">
-        <v>58.84158385878369</v>
+        <v>60.66058901510223</v>
       </c>
       <c r="R10">
-        <v>58.84158385878369</v>
+        <v>545.94530113592</v>
       </c>
       <c r="S10">
-        <v>0.02488043249003749</v>
+        <v>0.01506716646202037</v>
       </c>
       <c r="T10">
-        <v>0.02488043249003749</v>
+        <v>0.01506716646202037</v>
       </c>
     </row>
   </sheetData>
